--- a/public/template/schedule.xlsx
+++ b/public/template/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectME\booking-tiket-api\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F46A441B-F312-47BA-A806-4AC86FA83254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E54DD1-DE16-4590-A416-EDA19C8C1ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C6AD3222-33B0-445C-AB61-470039209ACD}"/>
   </bookViews>
@@ -54,51 +54,6 @@
     <t>price</t>
   </si>
   <si>
-    <t>1a2e8d11-6cd5-4a9e-b3e6-dfa611e5cc8e</t>
-  </si>
-  <si>
-    <t>1f96a463-9ac4-4e1a-802c-c81849a9b600</t>
-  </si>
-  <si>
-    <t>25bf20b0-5d36-47cd-8230-3b1c00344d3b</t>
-  </si>
-  <si>
-    <t>2ebc37e5-7fd0-497c-9487-8e13e206b9e0</t>
-  </si>
-  <si>
-    <t>4d27a9ec-f52a-455e-ad1e-82fe7d5f501a</t>
-  </si>
-  <si>
-    <t>73f9b1c0-eb55-4157-b02a-92041fab588e</t>
-  </si>
-  <si>
-    <t>7fc860a2-adee-4a6c-b87c-5e3755be1977</t>
-  </si>
-  <si>
-    <t>865acbbb-b673-437f-bb33-7104c275a7ca</t>
-  </si>
-  <si>
-    <t>998e6be4-1096-4ecd-8d25-702e96400730</t>
-  </si>
-  <si>
-    <t>fb697867-0b4c-4682-a1d0-b20368d18a41</t>
-  </si>
-  <si>
-    <t>49dc1580-bc2c-4631-a8d6-a7e19685b4fa</t>
-  </si>
-  <si>
-    <t>534a778c-8588-4a52-9eed-e013512c5e8a</t>
-  </si>
-  <si>
-    <t>5e20821d-f56f-4467-8f9a-5ec0646911f9</t>
-  </si>
-  <si>
-    <t>6e2d6c6c-18b8-40be-9b27-38c1d66d7601</t>
-  </si>
-  <si>
-    <t>77a06f12-dede-4e7a-9fb9-5cbca9f65821</t>
-  </si>
-  <si>
     <t>2025-05-05T08:30:00Z</t>
   </si>
   <si>
@@ -127,6 +82,51 @@
   </si>
   <si>
     <t>2025-04-20T18:25:00Z</t>
+  </si>
+  <si>
+    <t>48f36c79-f81e-439e-94c0-ee08bed6e752</t>
+  </si>
+  <si>
+    <t>606c9e41-0012-4763-bc18-d8b1d7ee6e39</t>
+  </si>
+  <si>
+    <t>858960de-433b-4fa8-95df-5e405b90e145</t>
+  </si>
+  <si>
+    <t>c43b2364-4ab0-4311-84c3-dda03aadbc44</t>
+  </si>
+  <si>
+    <t>d810ac72-21cc-4937-95ef-19f26a2ec483</t>
+  </si>
+  <si>
+    <t>c78dc665-5bac-47e5-8267-294fd76aec52</t>
+  </si>
+  <si>
+    <t>87306253-f9f8-40d7-b341-cabf4575ead2</t>
+  </si>
+  <si>
+    <t>4d1bf8a2-db5d-4674-a61a-9b16ff636c4a</t>
+  </si>
+  <si>
+    <t>386aa91e-67bf-43bb-8137-e0ec8a32f370</t>
+  </si>
+  <si>
+    <t>fac8c0fd-52a0-4aad-be34-d66d5e9cd07f</t>
+  </si>
+  <si>
+    <t>1d48c5a3-a8b0-478b-b527-02c2ba33fc5f</t>
+  </si>
+  <si>
+    <t>37e09188-788c-43fd-9ad7-eacf29db31d5</t>
+  </si>
+  <si>
+    <t>377c5e4a-2f99-4369-afeb-54b023955b36</t>
+  </si>
+  <si>
+    <t>5621fa9a-c0ee-40e4-8c59-4b7eeda7659a</t>
+  </si>
+  <si>
+    <t>5cb86230-5d62-4d29-858c-b80b17975ebd</t>
   </si>
 </sst>
 </file>
@@ -162,10 +162,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,101 +515,101 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>350000</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>560000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>250000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>1250000</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>300000</v>
       </c>
     </row>
